--- a/biology/Zoologie/Brookesia_peyrierasi/Brookesia_peyrierasi.xlsx
+++ b/biology/Zoologie/Brookesia_peyrierasi/Brookesia_peyrierasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brookesia peyrierasi est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brookesia peyrierasi est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce caméléon nain est de petite taille, diurne, et vit au sol ou sur les branches basses des forêts.
 </t>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brookesia peyrierasi, Brookesia minima et Brookesia tuberculata ont été considérées comme synonymes par Raxworthy &amp; Nussbaum, 1995[2], cette synonymie a été levée par Glaw et all., 1999[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brookesia peyrierasi, Brookesia minima et Brookesia tuberculata ont été considérées comme synonymes par Raxworthy &amp; Nussbaum, 1995, cette synonymie a été levée par Glaw et all., 1999.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'André Peyrieras[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'André Peyrieras.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Brygoo &amp; Domergue, 1975 "1974" : Notes sur les Brookesia de Madagascar. IX. Observations sur B. tuberculata Mocquard, 1894, B. ramanantsoai sp. nov. et B. peyrierasi nom. nov. (Reptilia, Squamata, Chamaeleontidae). Bulletin du Muséum national d'Histoire naturelle, Paris, vol. 189, n. 267, p. 1769-1782.</t>
         </is>
